--- a/Homework 8 - Natalia Bodrug/Sprint Backlog.xlsx
+++ b/Homework 8 - Natalia Bodrug/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\QA Internship\HW5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47E1EBD-1E65-4914-AEAF-CFE61F2F9BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B231BC-BC2C-4B3A-A709-02AF4E44BFF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,22 +44,22 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Teams Mobile post fishfood" guid="{D13CD968-6E66-4EE6-9DFE-9BDD1E93FBE7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Coffee Backlog" guid="{6580F879-AD79-43DA-8EF1-966BB1E0C11E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Teams QR1 S2" guid="{ACA580D2-E783-4B1D-AACA-AE2B1366005C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Teams QR1 S1" guid="{222A0948-353A-43A5-B952-0EE881DC1128}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Teams Fishfood OPEN" guid="{F08BB712-254D-4A34-A2F9-C2B31B435B01}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="UX Filter View" guid="{F3B7B52E-FBC6-4B56-BBAD-176334B1BC58}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="TQ1 S3" guid="{51060DEC-BC55-4B3B-B88A-5ABB3E3AFD33}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Teams - Huddle" guid="{6A1FB1EE-5B08-4499-8066-E695EF2D48E3}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Leigh's Filter" guid="{61C357F5-1122-4EBF-AC35-5EE4600ADAF4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Teams Prioritized Backlog" guid="{C1CABB0E-5539-4E59-B922-3899AC24CAE2}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Teams - tempo" guid="{54B2C366-C054-453E-BBA1-4391A5FB7FDE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Teams Post-Dogfood OPEN" guid="{C9FA425B-8E93-4E90-8045-16AB935610E4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Teams Dogfood OPEN" guid="{D36CA837-58D6-4CCB-B615-23257A659FE6}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Teams - R1 S7" guid="{8B7A437C-D0B1-4B24-B7A8-6D63CEE7F96E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="UX - Designs Needed - Quantum" guid="{1F1C09F2-A526-421F-9C33-59D99E44664A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Teams Quantum" guid="{9764CE48-40FD-4930-A287-D31093F52240}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="UX - Designs Needed - Quantum" guid="{1F1C09F2-A526-421F-9C33-59D99E44664A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Teams - R1 S7" guid="{8B7A437C-D0B1-4B24-B7A8-6D63CEE7F96E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Teams Dogfood OPEN" guid="{D36CA837-58D6-4CCB-B615-23257A659FE6}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Teams Post-Dogfood OPEN" guid="{C9FA425B-8E93-4E90-8045-16AB935610E4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Teams - tempo" guid="{54B2C366-C054-453E-BBA1-4391A5FB7FDE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Teams Prioritized Backlog" guid="{C1CABB0E-5539-4E59-B922-3899AC24CAE2}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Leigh's Filter" guid="{61C357F5-1122-4EBF-AC35-5EE4600ADAF4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Teams - Huddle" guid="{6A1FB1EE-5B08-4499-8066-E695EF2D48E3}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="TQ1 S3" guid="{51060DEC-BC55-4B3B-B88A-5ABB3E3AFD33}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="UX Filter View" guid="{F3B7B52E-FBC6-4B56-BBAD-176334B1BC58}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Teams Fishfood OPEN" guid="{F08BB712-254D-4A34-A2F9-C2B31B435B01}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Teams QR1 S1" guid="{222A0948-353A-43A5-B952-0EE881DC1128}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Teams QR1 S2" guid="{ACA580D2-E783-4B1D-AACA-AE2B1366005C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Coffee Backlog" guid="{6580F879-AD79-43DA-8EF1-966BB1E0C11E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Teams Mobile post fishfood" guid="{D13CD968-6E66-4EE6-9DFE-9BDD1E93FBE7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>User Story Title</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Sprint</t>
   </si>
   <si>
-    <t>Creating A New Account</t>
-  </si>
-  <si>
     <t>As a new user of banking app, I want to create a new bank account using the banking mobile app, so that i can manage my financial transactions.</t>
   </si>
   <si>
@@ -105,19 +102,10 @@
     <t>Current Sprint</t>
   </si>
   <si>
-    <t>Transfer Money</t>
-  </si>
-  <si>
     <t>As a banking app user, I want to transfer money from my bank account to another account using the banking mobile app, so that I can easily manage my finances and pay bills on time.</t>
   </si>
   <si>
-    <t>Withdraw Money</t>
-  </si>
-  <si>
     <t>As a banking app user, I want to withdraw money from my bank account using the banking mobile app, so that I can easily draw out cash without using my card.</t>
-  </si>
-  <si>
-    <t>Deposit Money</t>
   </si>
   <si>
     <t>As a banking app user, I want to deposit money on my bank account using the mobile banking app, so that I can deposit my money quickly and avoid theft of them.</t>
@@ -126,16 +114,10 @@
     <t>Next Sprint</t>
   </si>
   <si>
-    <t>Check Balance</t>
-  </si>
-  <si>
     <t>As a banking app user, I want to check the current balance of my bank account using the mobile banking app, so that I can see my financial situation.</t>
   </si>
   <si>
     <t>$$</t>
-  </si>
-  <si>
-    <t>Pay Bills</t>
   </si>
   <si>
     <t>As a banking app user, I want to pay bills using the mobile banking app, so that I can pay bills on time and from home.</t>
@@ -156,13 +138,7 @@
     <t>$</t>
   </si>
   <si>
-    <t>ATMs Map</t>
-  </si>
-  <si>
     <t>As a banking app user, I want to be able to see where is the closest ATM, so that I can cash out my money from account.</t>
-  </si>
-  <si>
-    <t>Language Settings</t>
   </si>
   <si>
     <t>As a foreign app user, I want to be able to choose the app language, so that I will be able to use it properly, understanding its functionalities.</t>
@@ -217,6 +193,30 @@
   </si>
   <si>
     <t>Given that I am a in role of a new app user                                                 When I open the app and click on settings Then the system shows me the settings page                   When I choose my language Then the app updates with the new desired language</t>
+  </si>
+  <si>
+    <t>Deposit Money on your account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find nearest ATM </t>
+  </si>
+  <si>
+    <t>Create a new account</t>
+  </si>
+  <si>
+    <t>Transfer Money to another account</t>
+  </si>
+  <si>
+    <t>Withdraw Money from account</t>
+  </si>
+  <si>
+    <t>Check account balance</t>
+  </si>
+  <si>
+    <t>Pay bills using the app</t>
+  </si>
+  <si>
+    <t>Choose language settings</t>
   </si>
 </sst>
 </file>
@@ -860,12 +860,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
     <col min="2" max="2" width="36.109375" customWidth="1"/>
     <col min="3" max="3" width="37.44140625" customWidth="1"/>
     <col min="4" max="4" width="7.44140625" customWidth="1"/>
@@ -914,22 +914,22 @@
     </row>
     <row r="2" spans="1:24" ht="109.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="10">
         <v>13</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -952,22 +952,22 @@
     </row>
     <row r="3" spans="1:24" ht="109.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="10">
         <v>8</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="14"/>
@@ -990,22 +990,22 @@
     </row>
     <row r="4" spans="1:24" ht="109.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="10">
         <v>8</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="12"/>
@@ -1028,22 +1028,22 @@
     </row>
     <row r="5" spans="1:24" ht="109.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" s="10">
         <v>8</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1066,22 +1066,22 @@
     </row>
     <row r="6" spans="1:24" ht="109.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="10">
         <v>5</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -1104,22 +1104,22 @@
     </row>
     <row r="7" spans="1:24" ht="109.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7" s="10">
         <v>3</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1142,22 +1142,22 @@
     </row>
     <row r="8" spans="1:24" ht="109.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E8" s="10">
         <v>5</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1180,22 +1180,22 @@
     </row>
     <row r="9" spans="1:24" ht="109.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9" s="10">
         <v>2</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1218,22 +1218,22 @@
     </row>
     <row r="10" spans="1:24" ht="109.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -1256,22 +1256,22 @@
     </row>
     <row r="11" spans="1:24" ht="109.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E11" s="10">
         <v>5</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -2647,69 +2647,11 @@
   </sheetData>
   <autoFilter ref="A1:F11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{6580F879-AD79-43DA-8EF1-966BB1E0C11E}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:C53" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="Bonsai Trees"/>
-            <filter val="Plant Care Initiatives"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{9764CE48-40FD-4930-A287-D31093F52240}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:C53" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="0">
-          <filters>
-            <filter val="Bonsai Trees"/>
-            <filter val="Plant Care Initiatives"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{8B7A437C-D0B1-4B24-B7A8-6D63CEE7F96E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{51060DEC-BC55-4B3B-B88A-5ABB3E3AFD33}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{F3B7B52E-FBC6-4B56-BBAD-176334B1BC58}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{ACA580D2-E783-4B1D-AACA-AE2B1366005C}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{C9FA425B-8E93-4E90-8045-16AB935610E4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{C1CABB0E-5539-4E59-B922-3899AC24CAE2}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{222A0948-353A-43A5-B952-0EE881DC1128}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{1F1C09F2-A526-421F-9C33-59D99E44664A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{F08BB712-254D-4A34-A2F9-C2B31B435B01}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{54B2C366-C054-453E-BBA1-4391A5FB7FDE}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{6A1FB1EE-5B08-4499-8066-E695EF2D48E3}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{61C357F5-1122-4EBF-AC35-5EE4600ADAF4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D36CA837-58D6-4CCB-B615-23257A659FE6}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -2724,13 +2666,71 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{D36CA837-58D6-4CCB-B615-23257A659FE6}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{61C357F5-1122-4EBF-AC35-5EE4600ADAF4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{51060DEC-BC55-4B3B-B88A-5ABB3E3AFD33}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{6A1FB1EE-5B08-4499-8066-E695EF2D48E3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
+    <customSheetView guid="{54B2C366-C054-453E-BBA1-4391A5FB7FDE}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
+    <customSheetView guid="{F08BB712-254D-4A34-A2F9-C2B31B435B01}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
+    <customSheetView guid="{1F1C09F2-A526-421F-9C33-59D99E44664A}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
+    <customSheetView guid="{222A0948-353A-43A5-B952-0EE881DC1128}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
+    <customSheetView guid="{C1CABB0E-5539-4E59-B922-3899AC24CAE2}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
+    <customSheetView guid="{C9FA425B-8E93-4E90-8045-16AB935610E4}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
+    <customSheetView guid="{ACA580D2-E783-4B1D-AACA-AE2B1366005C}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
+    <customSheetView guid="{F3B7B52E-FBC6-4B56-BBAD-176334B1BC58}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
+    <customSheetView guid="{8B7A437C-D0B1-4B24-B7A8-6D63CEE7F96E}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:F53" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
+    <customSheetView guid="{9764CE48-40FD-4930-A287-D31093F52240}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:C53" xr:uid="{00000000-0000-0000-0000-000000000000}">
+        <filterColumn colId="0">
+          <filters>
+            <filter val="Bonsai Trees"/>
+            <filter val="Plant Care Initiatives"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{6580F879-AD79-43DA-8EF1-966BB1E0C11E}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:C53" xr:uid="{00000000-0000-0000-0000-000000000000}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="Bonsai Trees"/>
+            <filter val="Plant Care Initiatives"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:F1">
@@ -2758,7 +2758,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2795,11 +2795,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="44"/>
       <c r="H1" s="46" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
@@ -2819,16 +2819,15 @@
       <c r="X1" s="29"/>
     </row>
     <row r="2" spans="1:24" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Creating A New Account")</f>
-        <v>Creating A New Account</v>
+      <c r="A2" s="31" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="32" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"As a new user of banking app, I want to create a new bank account using the banking mobile app, so that i can manage my financial transactions.")</f>
         <v>As a new user of banking app, I want to create a new bank account using the banking mobile app, so that i can manage my financial transactions.</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D2" s="34" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"$$$")</f>
@@ -2844,13 +2843,13 @@
       </c>
       <c r="G2" s="45"/>
       <c r="H2" s="35" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
@@ -2865,16 +2864,15 @@
       <c r="X2" s="29"/>
     </row>
     <row r="3" spans="1:24" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Transfer Money")</f>
-        <v>Transfer Money</v>
+      <c r="A3" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="B3" s="32" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"As a banking app user, I want to transfer money from my bank account to another account using the banking mobile app, so that I can easily manage my finances and pay bills on time.")</f>
         <v>As a banking app user, I want to transfer money from my bank account to another account using the banking mobile app, so that I can easily manage my finances and pay bills on time.</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D3" s="34" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"$$$")</f>
@@ -2890,7 +2888,7 @@
       </c>
       <c r="G3" s="45"/>
       <c r="H3" s="37" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I3" s="38">
         <v>44276</v>
@@ -2910,16 +2908,15 @@
       <c r="X3" s="29"/>
     </row>
     <row r="4" spans="1:24" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Withdraw Money")</f>
-        <v>Withdraw Money</v>
+      <c r="A4" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="B4" s="32" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"As a banking app user, I want to withdraw money from my bank account using the banking mobile app, so that I can easily draw out cash without using my card.")</f>
         <v>As a banking app user, I want to withdraw money from my bank account using the banking mobile app, so that I can easily draw out cash without using my card.</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D4" s="34" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"$$$")</f>
@@ -2935,7 +2932,7 @@
       </c>
       <c r="G4" s="45"/>
       <c r="H4" s="37" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I4" s="38">
         <v>44287</v>
@@ -2963,7 +2960,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="45"/>
       <c r="H5" s="39" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I5" s="36">
         <v>29</v>
@@ -2995,7 +2992,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="45"/>
       <c r="H6" s="39" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I6" s="40">
         <v>29</v>
@@ -3027,7 +3024,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="45"/>
       <c r="H7" s="39" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I7" s="40">
         <f>4*COUNTIFS(sprint,I2,value,"$$$$")+3*COUNTIFS(sprint,I2,value,"$$$")+2*COUNTIFS(sprint,I2,value,"$$")+COUNTIFS(sprint,I2,value,"$")</f>
